--- a/data/trans_media/PCS12_SP-Edad-trans_media.xlsx
+++ b/data/trans_media/PCS12_SP-Edad-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,23; 55,8</t>
+          <t>55,21; 55,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,14; 55,82</t>
+          <t>55,12; 55,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,76; 56,32</t>
+          <t>55,72; 56,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,49; 56,27</t>
+          <t>55,45; 56,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,7; 55,42</t>
+          <t>54,64; 55,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,56; 55,45</t>
+          <t>54,51; 55,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,4; 56,04</t>
+          <t>55,37; 56,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,54; 56,0</t>
+          <t>54,49; 55,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,05; 55,5</t>
+          <t>55,02; 55,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,0; 55,56</t>
+          <t>55,0; 55,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,69; 56,13</t>
+          <t>55,67; 56,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,24; 56,0</t>
+          <t>55,18; 55,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,01; 55,64</t>
+          <t>55,0; 55,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,63; 55,38</t>
+          <t>54,61; 55,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,12; 55,89</t>
+          <t>55,19; 55,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,14; 54,67</t>
+          <t>53,15; 54,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,81; 54,68</t>
+          <t>53,81; 54,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,46; 55,22</t>
+          <t>54,42; 55,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,36; 55,35</t>
+          <t>54,28; 55,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,38; 55,28</t>
+          <t>54,4; 55,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,58; 55,13</t>
+          <t>54,56; 55,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,68; 55,19</t>
+          <t>54,67; 55,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,88; 55,53</t>
+          <t>54,9; 55,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,06; 54,89</t>
+          <t>53,99; 54,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,17; 54,92</t>
+          <t>54,14; 54,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,76; 54,72</t>
+          <t>53,87; 54,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,49; 55,3</t>
+          <t>54,48; 55,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,28; 54,28</t>
+          <t>53,18; 54,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,7; 53,66</t>
+          <t>52,64; 53,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,63; 53,68</t>
+          <t>52,62; 53,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,58; 54,48</t>
+          <t>53,56; 54,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,48; 53,53</t>
+          <t>52,53; 53,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,52; 54,18</t>
+          <t>53,53; 54,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,35; 54,05</t>
+          <t>53,38; 54,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,15; 54,81</t>
+          <t>54,18; 54,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,04; 53,78</t>
+          <t>52,99; 53,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,88; 53,92</t>
+          <t>52,87; 53,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,69; 53,83</t>
+          <t>52,72; 53,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,07; 53,37</t>
+          <t>51,95; 53,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,71; 52,24</t>
+          <t>50,69; 52,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 51,9</t>
+          <t>50,48; 51,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,83; 52,33</t>
+          <t>50,86; 52,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,33; 52,76</t>
+          <t>51,31; 52,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,56; 51,77</t>
+          <t>50,54; 51,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,86; 52,75</t>
+          <t>51,87; 52,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,99; 52,89</t>
+          <t>52,0; 52,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,9; 52,91</t>
+          <t>51,92; 52,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,85; 51,79</t>
+          <t>50,78; 51,81</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,14; 50,84</t>
+          <t>49,14; 50,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,62; 51,38</t>
+          <t>49,58; 51,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,28; 52,01</t>
+          <t>50,38; 51,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,39; 50,02</t>
+          <t>48,35; 49,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,9; 49,79</t>
+          <t>47,74; 49,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,24; 48,13</t>
+          <t>46,18; 48,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,2; 49,11</t>
+          <t>47,16; 49,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,63; 49,01</t>
+          <t>47,7; 49,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,67; 49,97</t>
+          <t>48,78; 50,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,12; 49,5</t>
+          <t>48,16; 49,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48,94; 50,31</t>
+          <t>48,98; 50,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,23; 49,29</t>
+          <t>48,24; 49,32</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,62; 46,53</t>
+          <t>44,72; 46,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,73; 44,87</t>
+          <t>42,68; 44,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,08; 46,95</t>
+          <t>45,2; 46,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 47,3</t>
+          <t>45,92; 47,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,99; 41,67</t>
+          <t>40,0; 41,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,27; 40,03</t>
+          <t>38,28; 40,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,27; 42,25</t>
+          <t>40,36; 42,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,92; 45,96</t>
+          <t>40,93; 46,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,26; 43,56</t>
+          <t>42,24; 43,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>40,47; 41,81</t>
+          <t>40,47; 41,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>42,68; 43,94</t>
+          <t>42,58; 43,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>43,31; 46,12</t>
+          <t>43,37; 45,97</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,05</t>
+          <t>52,55; 53,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,94; 52,58</t>
+          <t>51,96; 52,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,4; 52,97</t>
+          <t>52,43; 52,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51,0; 51,59</t>
+          <t>50,99; 51,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,66</t>
+          <t>50,03; 50,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,1</t>
+          <t>49,4; 50,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,97; 50,76</t>
+          <t>50,04; 50,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,21; 49,97</t>
+          <t>49,22; 49,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,77</t>
+          <t>51,34; 51,78</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,73; 51,2</t>
+          <t>50,74; 51,21</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51,29; 51,78</t>
+          <t>51,28; 51,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,17; 50,63</t>
+          <t>50,16; 50,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/PCS12_SP-Edad-trans_media.xlsx
+++ b/data/trans_media/PCS12_SP-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,21; 55,75</t>
+          <t>55,23; 55,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>55,12; 55,83</t>
+          <t>55,12; 55,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,72; 56,31</t>
+          <t>55,73; 56,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,64; 55,4</t>
+          <t>54,64; 55,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,51; 55,44</t>
+          <t>54,58; 55,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,37; 56,02</t>
+          <t>55,4; 56,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,02; 55,5</t>
+          <t>55,04; 55,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,0; 55,57</t>
+          <t>54,97; 55,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,67; 56,09</t>
+          <t>55,69; 56,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,0; 55,66</t>
+          <t>54,96; 55,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,61; 55,39</t>
+          <t>54,68; 55,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,19; 55,86</t>
+          <t>55,12; 55,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,81; 54,64</t>
+          <t>53,74; 54,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,42; 55,19</t>
+          <t>54,43; 55,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,28; 55,31</t>
+          <t>54,33; 55,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,56; 55,11</t>
+          <t>54,55; 55,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,67; 55,22</t>
+          <t>54,69; 55,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,9; 55,49</t>
+          <t>54,86; 55,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,14; 54,92</t>
+          <t>54,14; 54,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,87; 54,73</t>
+          <t>53,89; 54,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,48; 55,3</t>
+          <t>54,49; 55,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,64; 53,72</t>
+          <t>52,62; 53,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,62; 53,66</t>
+          <t>52,6; 53,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,56; 54,5</t>
+          <t>53,55; 54,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,53; 54,17</t>
+          <t>53,53; 54,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,38; 54,06</t>
+          <t>53,37; 54,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>54,18; 54,81</t>
+          <t>54,17; 54,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,87; 53,9</t>
+          <t>52,83; 53,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,72; 53,87</t>
+          <t>52,72; 53,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,95; 53,38</t>
+          <t>52,13; 53,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,48; 51,89</t>
+          <t>50,41; 51,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,86; 52,29</t>
+          <t>50,93; 52,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,31; 52,73</t>
+          <t>51,29; 52,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,87; 52,71</t>
+          <t>51,88; 52,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,0; 52,89</t>
+          <t>51,99; 52,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,92; 52,9</t>
+          <t>51,85; 52,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,14; 50,82</t>
+          <t>49,19; 50,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,58; 51,5</t>
+          <t>49,66; 51,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,38; 51,97</t>
+          <t>50,28; 51,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,74; 49,64</t>
+          <t>47,75; 49,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,18; 48,21</t>
+          <t>46,26; 48,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,16; 49,11</t>
+          <t>47,18; 49,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,78; 50,04</t>
+          <t>48,7; 50,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,16; 49,57</t>
+          <t>48,21; 49,58</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48,98; 50,26</t>
+          <t>48,95; 50,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,72; 46,63</t>
+          <t>44,63; 46,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,68; 44,84</t>
+          <t>42,67; 44,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,2; 46,95</t>
+          <t>45,16; 46,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,0; 41,72</t>
+          <t>39,94; 41,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,28; 40,05</t>
+          <t>38,22; 40,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,36; 42,15</t>
+          <t>40,33; 42,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,24; 43,62</t>
+          <t>42,29; 43,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>40,47; 41,86</t>
+          <t>40,44; 41,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>42,58; 43,98</t>
+          <t>42,65; 44,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,06</t>
+          <t>52,54; 53,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,96; 52,56</t>
+          <t>51,92; 52,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,43; 52,98</t>
+          <t>52,43; 52,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,03; 50,67</t>
+          <t>50,02; 50,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,4; 50,11</t>
+          <t>49,38; 50,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,04; 50,78</t>
+          <t>50,0; 50,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,78</t>
+          <t>51,35; 51,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,74; 51,21</t>
+          <t>50,73; 51,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,73</t>
+          <t>51,25; 51,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
